--- a/Excel_Data_Cleaning/datasets/homes.xlsx
+++ b/Excel_Data_Cleaning/datasets/homes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpar\Desktop\Summer 2025\statistics-projects-summer-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{084B5558-6823-415E-9832-FB0F8BCFC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F783F3D7-118E-4F9C-A57D-612100E49FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{103E3E52-3DA7-43C4-B4A3-3B4D6468A327}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{103E3E52-3DA7-43C4-B4A3-3B4D6468A327}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="68" uniqueCount="40">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="86" uniqueCount="55">
   <si>
     <t xml:space="preserve"> "Living" (living space)</t>
   </si>
@@ -172,6 +172,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Scatter plot of Living Space vs Selling Price</t>
+  </si>
+  <si>
+    <t>Table 1.1</t>
+  </si>
+  <si>
+    <t>Table 2.2</t>
+  </si>
+  <si>
+    <t>Table 2.1</t>
+  </si>
+  <si>
+    <t>Table 3.1</t>
+  </si>
+  <si>
+    <t>Chart 1.1</t>
+  </si>
+  <si>
+    <t>Chart 2.1</t>
+  </si>
+  <si>
+    <t>Chart 3.1</t>
+  </si>
+  <si>
+    <t>Table 1.2</t>
+  </si>
+  <si>
+    <t>Table 3.2</t>
+  </si>
+  <si>
+    <t>Chart 1.2</t>
+  </si>
+  <si>
+    <t>Chart 2.2</t>
+  </si>
+  <si>
+    <t>Chart 3.2</t>
+  </si>
+  <si>
+    <t>Slicer 1</t>
+  </si>
+  <si>
+    <t>Slicer 2.1</t>
+  </si>
+  <si>
+    <t>Slicer 2.2</t>
   </si>
 </sst>
 </file>
@@ -684,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,7 +737,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -764,247 +808,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <font>
         <sz val="12"/>
@@ -1702,7 +1506,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pivot tables'!$B$3</c:f>
+              <c:f>'pivot tables'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1723,7 +1527,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot tables'!$A$4:$A$8</c:f>
+              <c:f>'pivot tables'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1743,7 +1547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot tables'!$B$4:$B$8</c:f>
+              <c:f>'pivot tables'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2831,7 +2635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3022,7 +2826,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pivot tables'!$B$10</c:f>
+              <c:f>'pivot tables'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3045,7 +2849,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot tables'!$A$11:$A$16</c:f>
+              <c:f>'pivot tables'!$A$14:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3068,7 +2872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot tables'!$B$11:$B$16</c:f>
+              <c:f>'pivot tables'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3416,9 +3220,773 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="800"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Scatter plot of Living Space vs Selling Price</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10947662998945834"/>
+          <c:y val="0.14083282233852445"/>
+          <c:w val="0.82600649476033505"/>
+          <c:h val="0.63461541123431897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> "Living" (living space)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A56C-4938-AA77-66E10D951912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="949220080"/>
+        <c:axId val="949220560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="949220080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Selling</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-MU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-MU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949220560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="949220560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MU"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Living</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0%"/>
+                  <a:t> Space</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-MU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949220080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-MU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[homes.xlsx]pivot tables!PivotTable1</c:name>
-    <c:fmtId val="22"/>
+    <c:fmtId val="27"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -4151,6 +4719,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75%"/>
+                      <a:lumOff val="25%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75%"/>
+                      <a:lumOff val="25%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4163,7 +4843,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pivot tables'!$B$3</c:f>
+              <c:f>'pivot tables'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4184,7 +4864,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot tables'!$A$4:$A$8</c:f>
+              <c:f>'pivot tables'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4204,7 +4884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot tables'!$B$4:$B$8</c:f>
+              <c:f>'pivot tables'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4225,7 +4905,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7F4-4C5F-A619-37C2031886CD}"/>
+              <c16:uniqueId val="{00000000-E7B5-49E0-8554-C7FFA58FAAD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4534,7 +5214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4549,7 +5229,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[homes.xlsx]pivot tables!PivotTable3</c:name>
-    <c:fmtId val="26"/>
+    <c:fmtId val="32"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -5205,6 +5885,242 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75%"/>
+                      <a:lumOff val="25%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75%"/>
+                      <a:lumOff val="25%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75%"/>
+                      <a:lumOff val="25%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75%"/>
+                      <a:lumOff val="25%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MU"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5269,7 +6185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pivot tables'!$B$10</c:f>
+              <c:f>'pivot tables'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5292,7 +6208,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot tables'!$A$11:$A$16</c:f>
+              <c:f>'pivot tables'!$A$14:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5315,7 +6231,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot tables'!$B$11:$B$16</c:f>
+              <c:f>'pivot tables'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5340,7 +6256,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22FF-4300-AEA8-53ECE7685B53}"/>
+              <c16:uniqueId val="{00000000-A6E5-47DD-A58E-2E149B8D09E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5647,770 +6563,6 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="800"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Scatter plot of Living Space vs Selling Price</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10947662998945834"/>
-          <c:y val="0.14083282233852445"/>
-          <c:w val="0.82600649476033505"/>
-          <c:h val="0.63461541123431897"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> "Living" (living space)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data!$B$2:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>133</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$F$2:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A56C-4938-AA77-66E10D951912}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="949220080"/>
-        <c:axId val="949220560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="949220080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Selling</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-MU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-MU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25%"/>
-                <a:lumOff val="75%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-MU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="949220560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="949220560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65%"/>
-                        <a:lumOff val="35%"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-MU"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Living</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0%"/>
-                  <a:t> Space</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65%"/>
-                      <a:lumOff val="35%"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-MU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25%"/>
-                <a:lumOff val="75%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-MU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="949220080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-MU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7647,6 +7799,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8151,7 +8819,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8667,522 +9335,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75%"/>
-          <a:lumOff val="25%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50%"/>
-            <a:lumOff val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
@@ -9195,8 +9347,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9234,7 +9386,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9272,7 +9424,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9304,59 +9456,21 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>16144</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Chart 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1065B849-6D06-46E9-8855-9077CA745740}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26831</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="25" name=" &quot;Age&quot;                 (age)">
@@ -9379,7 +9493,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9424,12 +9538,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2369635" cy="1649451"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name=" &quot;Beds&quot; (bedrooms)">
@@ -9452,7 +9566,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9497,12 +9611,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2439330" cy="1672683"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="2439330" cy="1623935"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="27" name=" &quot;Beds&quot; (bedrooms) 1">
@@ -9525,7 +9639,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9568,23 +9682,61 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187817</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="28" name="Chart 27">
+        <xdr:cNvPr id="29" name="Chart 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F219018B-4D83-4D69-A1D2-5C4F9D21AD45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B82C5EF-2C15-459B-885E-B2C9062E006B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>16144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3509D03A-CF56-465B-9A99-6CA7A098BA86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9606,23 +9758,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>187817</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2045531</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B82C5EF-2C15-459B-885E-B2C9062E006B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA11A847-1BEA-49DA-A963-5FCCBEA38B07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10507,8 +10659,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1125213-1156-403D-B6BD-7DBBDCD095A9}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27" rowHeaderCaption="Age">
-  <location ref="A10:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1125213-1156-403D-B6BD-7DBBDCD095A9}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33" rowHeaderCaption="Age">
+  <location ref="A13:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -10569,16 +10721,16 @@
     <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="98">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="45">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="5">
@@ -10591,14 +10743,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="7">
     <chartFormat chart="10" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10626,6 +10778,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="29" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="31" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="32" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10640,7 +10828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAC26608-3AA1-45FE-A93B-811D22D08DBE}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAC26608-3AA1-45FE-A93B-811D22D08DBE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
   <location ref="D2:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10702,16 +10890,16 @@
     <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="91">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="51">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="5">
@@ -10724,10 +10912,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10744,8 +10932,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDC53C70-014F-44BE-904B-F503E082EA4E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25" rowHeaderCaption="Beds">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDC53C70-014F-44BE-904B-F503E082EA4E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28" rowHeaderCaption="Beds">
+  <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
@@ -10868,30 +11056,30 @@
     <dataField name="Average of Sell (selling price)" fld="1" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="84">
+    <format dxfId="59">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="57">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="6">
+  <chartFormats count="7">
     <chartFormat chart="4" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10946,130 +11134,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
-  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="0">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
+    <chartFormat chart="27" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11091,120 +11156,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
-  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="6">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2932BBF5-7783-4F9E-8970-645FBFA40D90}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Beds">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2932BBF5-7783-4F9E-8970-645FBFA40D90}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Beds">
   <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -11325,26 +11278,26 @@
     <dataField name="Average of Sell (selling price)" fld="1" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="105">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="27">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11368,6 +11321,250 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
+  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="35">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
+  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="41">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11752,7 +11949,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF462E4-7EA0-43F3-B75E-ACA8CE6C4991}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView zoomScale="71" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11761,2526 +11958,2526 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.7109375" style="9"/>
-    <col min="4" max="4" width="13.7109375" style="10"/>
-    <col min="5" max="16384" width="13.7109375" style="9"/>
+    <col min="1" max="3" width="13.7109375" style="8"/>
+    <col min="4" max="4" width="13.7109375" style="9"/>
+    <col min="5" max="16384" width="13.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>142</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>160</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f>C2-B2</f>
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="8" t="str">
         <f>IF(B2&gt;150, "yes", "no")</f>
         <v>no</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>28</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>10</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>60</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>3167</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <f>B2*$M$52</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <f>(B2*0.05)-M2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="9" t="str">
+      <c r="O2" s="8" t="str">
         <f>VLOOKUP(A2,$P$2:$Q$4,2,FALSE)</f>
         <v>Sarah DuBois</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>1</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>175</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>180</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D51" si="0">C3-B3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E51" si="1">IF(B3&gt;150, "yes", "no")</f>
         <v>yes</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>18</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>4</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>12</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>0.43</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>4033</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <f t="shared" ref="M3:M50" si="2">B3*$M$52</f>
         <v>8.75</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f t="shared" ref="N3:N51" si="3">(B3*0.05)-M3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="9" t="str">
+      <c r="O3" s="8" t="str">
         <f>VLOOKUP(A6,$P$2:$Q$4,2,FALSE)</f>
         <v>Mark Chen</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>5</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>129</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>132</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>13</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>41</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0.33</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>1471</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f t="shared" si="2"/>
         <v>6.45</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>10</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>138</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>140</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>17</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>7</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>22</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>0.46</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>3204</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" si="2"/>
         <v>6.9</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>232</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>240</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>25</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>3613</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="2"/>
         <v>11.600000000000001</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>135</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>140</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>18</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>7</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>9</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>3028</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>150</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>160</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>18</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>4</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>3131</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>207</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>225</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>22</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>16</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>5158</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f t="shared" si="2"/>
         <v>10.350000000000001</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>271</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>285</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>30</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>10</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>5</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>30</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>0.53</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>5702</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f t="shared" si="2"/>
         <v>13.55</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>89</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>90</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>10</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>43</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>0.3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>2054</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f t="shared" si="2"/>
         <v>4.45</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>153</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>157</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>22</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>8</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>3</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>18</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>0.38</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>4127</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f t="shared" si="2"/>
         <v>7.65</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>87</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>90</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>16</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>7</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>3</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>1</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>50</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>0.65</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>1445</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f t="shared" si="2"/>
         <v>4.3500000000000005</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>234</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>238</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>25</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>8</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>4</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>2</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>2</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>1.61</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>2087</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <f t="shared" si="2"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>106</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>116</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>20</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>8</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>4</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>1</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>13</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>0.22</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>2818</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f t="shared" si="2"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>175</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>180</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>22</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>8</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>4</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>15</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>2.06</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>3917</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>165</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>170</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>17</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>8</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>4</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>33</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>0.46</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>2220</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>166</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>170</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>23</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>9</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>4</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>2</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>37</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>0.27</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>3498</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>136</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>140</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>19</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>7</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>3</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>1</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>22</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>0.63</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>3607</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>148</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>160</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>17</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>7</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>3</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>2</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>13</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>0.36</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>3648</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>151</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>153</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="9" t="str">
+      <c r="E21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>19</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>8</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>4</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>2</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>24</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.34</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>3561</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f t="shared" si="2"/>
         <v>7.5500000000000007</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>180</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>190</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>24</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>9</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>4</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>2</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>10</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>1.55</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>4681</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>293</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>305</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>26</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>8</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>4</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>3</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>6</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>0.46</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>7088</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <f t="shared" si="2"/>
         <v>14.65</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>167</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>170</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E24" s="9" t="str">
+      <c r="E24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>20</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>9</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>4</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>2</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>46</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>0.46</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>3482</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f t="shared" si="2"/>
         <v>8.35</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>190</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>193</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="E25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>22</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>9</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>5</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>2</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>37</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>0.48</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>3920</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>184</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>190</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>21</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>9</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>2</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>27</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>1.3</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>4162</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <f t="shared" si="2"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>157</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>165</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>20</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>8</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>4</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>2</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>7</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>0.3</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>3785</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <f t="shared" si="2"/>
         <v>7.8500000000000005</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>110</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>115</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>16</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>8</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>4</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>1</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>26</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>3103</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>135</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>145</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>18</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>7</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>4</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>1</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>35</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>0.43</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>3363</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>567</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>625</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E30" s="9" t="str">
+      <c r="E30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>64</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>11</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>4</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>4</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>4</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>0.85</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>12192</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <f t="shared" si="2"/>
         <v>28.35</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>180</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>185</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>20</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>8</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>4</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>2</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>11</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>1</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>3831</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>183</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>188</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E32" s="9" t="str">
+      <c r="E32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>17</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>7</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>3</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>2</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>16</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <v>3</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <v>3564</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <f t="shared" si="2"/>
         <v>9.15</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>185</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>193</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E33" s="9" t="str">
+      <c r="E33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>20</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>9</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>3</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>2</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>56</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <v>6.49</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>3765</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>152</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>155</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E34" s="9" t="str">
+      <c r="E34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>17</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>8</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>4</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>1</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>33</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>0.7</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>3361</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>148</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>153</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E35" s="9" t="str">
+      <c r="E35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>13</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>6</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>3</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>2</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <v>22</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <v>0.39</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>3950</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>152</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>159</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E36" s="9" t="str">
+      <c r="E36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>15</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>7</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>3</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>1</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>25</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>0.59</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>3055</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>146</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>150</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E37" s="9" t="str">
+      <c r="E37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>16</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>7</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>3</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>1</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <v>31</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <v>0.36</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>2950</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <f t="shared" si="2"/>
         <v>7.3000000000000007</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>170</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>190</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E38" s="9" t="str">
+      <c r="E38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>24</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>10</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>3</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <v>2</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <v>33</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>3346</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>127</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>130</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E39" s="9" t="str">
+      <c r="E39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>20</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>8</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>4</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>1</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>65</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="8">
         <v>0.4</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>3334</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <f t="shared" si="2"/>
         <v>6.3500000000000005</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>265</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>270</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E40" s="9" t="str">
+      <c r="E40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>36</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>10</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>6</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>3</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>33</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>1.2</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>5853</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <f t="shared" si="2"/>
         <v>13.25</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>157</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>163</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E41" s="9" t="str">
+      <c r="E41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>18</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>8</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>4</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>2</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>12</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>3982</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <f t="shared" si="2"/>
         <v>7.8500000000000005</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>128</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>135</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E42" s="9" t="str">
+      <c r="E42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>17</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>9</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>4</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>1</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>25</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>0.52</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>3374</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>110</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>120</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E43" s="9" t="str">
+      <c r="E43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>15</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>8</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>4</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <v>2</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="8">
         <v>11</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="8">
         <v>0.59</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>3119</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="8">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>123</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>130</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E44" s="9" t="str">
+      <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>18</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>8</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>4</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>2</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="8">
         <v>43</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>0.39</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>3268</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>212</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>230</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E45" s="9" t="str">
+      <c r="E45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>39</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>12</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>5</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <v>3</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <v>202</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="8">
         <v>4.29</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>3648</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <f t="shared" si="2"/>
         <v>10.600000000000001</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>145</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>145</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="str">
+      <c r="E46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>18</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>8</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>4</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>2</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="8">
         <v>44</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="8">
         <v>0.22</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="8">
         <v>2783</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>129</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>135</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E47" s="9" t="str">
+      <c r="E47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>10</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>6</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>3</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <v>1</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="8">
         <v>15</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="8">
         <v>1</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="8">
         <v>2438</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="8">
         <f t="shared" si="2"/>
         <v>6.45</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>143</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>145</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E48" s="9" t="str">
+      <c r="E48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>21</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>7</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>4</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <v>2</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="8">
         <v>10</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="8">
         <v>1.2</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="8">
         <v>3529</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>247</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>252</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E49" s="9" t="str">
+      <c r="E49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>29</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>9</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>4</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="8">
         <v>2</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="8">
         <v>4</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="8">
         <v>1.25</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="8">
         <v>4626</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="8">
         <f t="shared" si="2"/>
         <v>12.350000000000001</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>111</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>120</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E50" s="9" t="str">
+      <c r="E50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>15</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>8</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>3</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <v>1</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="8">
         <v>97</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="8">
         <v>3205</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <f t="shared" si="2"/>
         <v>5.5500000000000007</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>133</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>145</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E51" s="9" t="str">
+      <c r="E51" s="8" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>26</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>7</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>3</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <v>1</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="8">
         <v>42</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="8">
         <v>0.36</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="8">
         <v>3059</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="8">
         <f>B51*$M$52</f>
         <v>6.65</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <f>SUM(B2:B51)</f>
         <v>8518</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="8">
         <f>0.05</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <f>AVERAGE(F2:F51)</f>
         <v>21.12</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <f>SUMIF(H2:H51,"&gt;4",B2:B51)</f>
         <v>1264</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="8">
         <f>COUNTIF(J2:J51,"&lt;50")</f>
         <v>44</v>
       </c>
@@ -14351,10 +14548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DC09C9-ACD9-4EFA-A232-678A68143CF9}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14370,14 +14567,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
@@ -14386,12 +14589,6 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -14400,11 +14597,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>139.8125</v>
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
@@ -14415,10 +14612,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>179.17857142857142</v>
+        <v>139.8125</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -14429,10 +14626,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>199.8</v>
+        <v>179.17857142857142</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -14443,10 +14640,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>265</v>
+        <v>199.8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -14456,11 +14653,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
+      <c r="A8" s="4">
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>170.36</v>
+        <v>265</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>24</v>
@@ -14469,60 +14666,90 @@
         <v>185305</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>170.36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
+      <c r="A10" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4914</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2827</v>
+      <c r="A12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5">
-        <v>454</v>
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5">
-        <v>111</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4914</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
-        <v>212</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2827</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B19" s="2">
         <v>8518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -14532,17 +14759,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2234400E-ADD6-496D-870A-E3E35738395E}">
-  <dimension ref="A1"/>
+  <dimension ref="B16:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14550,10 +14791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43A6CEA-53D0-45F1-8FD7-B18EA4B5C569}">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14583,7 +14824,7 @@
       <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14612,19 +14853,19 @@
       <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>139.8125</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>109146</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>4914</v>
       </c>
     </row>
@@ -14632,19 +14873,19 @@
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>179.17857142857142</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>59040</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>2827</v>
       </c>
     </row>
@@ -14652,19 +14893,19 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>199.8</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>10266</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>454</v>
       </c>
     </row>
@@ -14672,19 +14913,19 @@
       <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>265</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>3205</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>111</v>
       </c>
     </row>
@@ -14692,42 +14933,80 @@
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>170.36</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>3648</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>185305</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>8518</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_Data_Cleaning/datasets/homes.xlsx
+++ b/Excel_Data_Cleaning/datasets/homes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpar\Desktop\Summer 2025\statistics-projects-summer-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F783F3D7-118E-4F9C-A57D-612100E49FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{25087350-B1F0-4ED7-87C1-9EE31EC43076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{103E3E52-3DA7-43C4-B4A3-3B4D6468A327}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="86" uniqueCount="55">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="55">
   <si>
     <t xml:space="preserve"> "Living" (living space)</t>
   </si>
@@ -808,127 +808,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <sz val="12"/>
@@ -10721,16 +10601,16 @@
     <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="47">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="21">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="5">
@@ -10743,10 +10623,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10890,16 +10770,16 @@
     <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="53">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="27">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="5">
@@ -10912,10 +10792,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11056,26 +10936,26 @@
     <dataField name="Average of Sell (selling price)" fld="1" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="59">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="33">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11157,6 +11037,250 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
+  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
+  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2932BBF5-7783-4F9E-8970-645FBFA40D90}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Beds">
   <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -11278,26 +11402,26 @@
     <dataField name="Average of Sell (selling price)" fld="1" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="29">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="15">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11321,250 +11445,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB9A937-7C4E-4BA5-AF97-4DE4A46EF39B}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Age">
-  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sell (selling price)" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="35">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1CF4E41-593A-4F01-B1FC-CE51E034AB3A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age">
-  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of  &quot;Taxes&quot; (taxes)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="41">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -14761,7 +14641,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2234400E-ADD6-496D-870A-E3E35738395E}">
   <dimension ref="B16:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -14793,8 +14673,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43A6CEA-53D0-45F1-8FD7-B18EA4B5C569}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15003,6 +14883,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>49</v>
